--- a/ebstelen plate layout.xlsx
+++ b/ebstelen plate layout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/garc286/RStudio/ebstein_mg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE18EE4-CED1-A749-A25C-DB934DDE6B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EDE6D5-7BE8-7944-9850-B097F99987DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18780" yWindow="500" windowWidth="18880" windowHeight="15760" activeTab="1" xr2:uid="{DDCBE29A-6ABD-4048-9F0E-E6122887856A}"/>
+    <workbookView xWindow="11120" yWindow="500" windowWidth="26540" windowHeight="15760" activeTab="1" xr2:uid="{DDCBE29A-6ABD-4048-9F0E-E6122887856A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,6 +559,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1266F1A-D76B-FD43-91CE-7A8E1E46EB69}">
-  <dimension ref="C6:O25"/>
+  <dimension ref="C6:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="C6" sqref="C6:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1216,29 +1221,29 @@
       <c r="E8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>30</v>
+      <c r="F8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="21" t="s">
-        <v>30</v>
+      <c r="I8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>30</v>
+      <c r="L8" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>44</v>
@@ -1257,29 +1262,29 @@
       <c r="E9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>30</v>
+      <c r="F9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>30</v>
+      <c r="I9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>30</v>
+      <c r="L9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="N9" s="17" t="s">
         <v>44</v>
@@ -1298,29 +1303,29 @@
       <c r="E10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>30</v>
+      <c r="F10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>30</v>
+      <c r="I10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="K10" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>30</v>
+      <c r="L10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>44</v>
@@ -1339,29 +1344,29 @@
       <c r="E11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>30</v>
+      <c r="F11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="25" t="s">
-        <v>30</v>
+      <c r="I11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="K11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="25" t="s">
-        <v>30</v>
+      <c r="L11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="N11" s="17" t="s">
         <v>44</v>
@@ -1380,29 +1385,29 @@
       <c r="E12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>30</v>
+      <c r="F12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="H12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>30</v>
+      <c r="I12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="K12" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="27" t="s">
-        <v>30</v>
+      <c r="L12" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="N12" s="17" t="s">
         <v>44</v>
@@ -1421,29 +1426,29 @@
       <c r="E13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="27" t="s">
-        <v>30</v>
+      <c r="F13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>30</v>
+      <c r="I13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="K13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>30</v>
+      <c r="L13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>44</v>
@@ -1522,47 +1527,107 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>35</v>
       </c>
       <c r="F18" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J18" s="41"/>
+      <c r="K18" s="41"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E19" s="13" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="28" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E20" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J20" s="42"/>
+      <c r="K20" s="41"/>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J21" s="42"/>
+      <c r="K21" s="41"/>
+    </row>
+    <row r="22" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J22" s="42"/>
+      <c r="K22" s="41"/>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J23" s="42"/>
+      <c r="K23" s="41"/>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="J24" s="42"/>
+      <c r="K24" s="41"/>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>43</v>
       </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="41"/>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I28" s="40"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="40"/>
+    </row>
+    <row r="30" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="40"/>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="3">
